--- a/index_build_times.xlsx
+++ b/index_build_times.xlsx
@@ -98,6 +98,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -119,12 +120,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -331,12 +334,12 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -528,7 +531,10 @@
         <f aca="false">(2.61356+2.62787+2.60664+2.66948+2.60817)/5</f>
         <v>2.625144</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="n">
+        <f aca="false">(203.385+203.583+204.463+204.39+203.633)/5</f>
+        <v>203.8908</v>
+      </c>
       <c r="E14" s="9" t="n">
         <f aca="false">(15.8809+15.8799+15.9602+16.2733+15.8961)/5</f>
         <v>15.97808</v>
@@ -546,7 +552,10 @@
         <f aca="false">(2.48563+2.26274+2.26329+2.28168+2.26243)/5</f>
         <v>2.311154</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="n">
+        <f aca="false">(6.11628+6.10135+6.11597+6.1265+6.14355)/5</f>
+        <v>6.12073</v>
+      </c>
       <c r="E15" s="9" t="n">
         <f aca="false">(2.2143+2.28192+2.21146+2.21143+2.2129)/5</f>
         <v>2.226402</v>
@@ -564,7 +573,10 @@
         <f aca="false">(43.0941+39.6687+37.8384+38.0169+38.5331)/5</f>
         <v>39.43024</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="n">
+        <f aca="false">(488.498+482.918+485.014+484.759+481.954)/5</f>
+        <v>484.6286</v>
+      </c>
       <c r="E16" s="9" t="n">
         <f aca="false">(304.153+306.382+299.326+299.917+302.547)/5</f>
         <v>302.465</v>
@@ -582,7 +594,10 @@
         <f aca="false">(50.4878+50.0191+50.2795+50.4124+51.2379)/5</f>
         <v>50.48734</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="n">
+        <f aca="false">(2070.61+2136.17+2025.84+1536.91+1697.72)/5</f>
+        <v>1893.45</v>
+      </c>
       <c r="E17" s="9" t="n">
         <f aca="false">(260.704+258.935+260.797+259.026+258.224)/5</f>
         <v>259.5372</v>
@@ -600,7 +615,10 @@
         <f aca="false">(3.3197+3.62666+3.32007+3.31533+3.31798)/5</f>
         <v>3.379948</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="n">
+        <f aca="false">(159.598+162.842+160.258+163.46+164.336)/5</f>
+        <v>162.0988</v>
+      </c>
       <c r="E18" s="9" t="n">
         <f aca="false">(3.2725+3.21404+3.5232+3.29191+3.39547)/5</f>
         <v>3.339424</v>
@@ -620,7 +638,7 @@
       </c>
       <c r="D19" s="9" t="n">
         <f aca="false">SUM(D14:D18)</f>
-        <v>0</v>
+        <v>2750.18893</v>
       </c>
       <c r="E19" s="9" t="n">
         <f aca="false">SUM(E14:E18)</f>

--- a/index_build_times.xlsx
+++ b/index_build_times.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t xml:space="preserve">Load Time - Average of 5 runs (secs)</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t xml:space="preserve">SemmedDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB</t>
   </si>
   <si>
     <t xml:space="preserve">CS1</t>
@@ -197,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,6 +222,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -331,10 +338,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -387,7 +394,10 @@
         <f aca="false">(2.6225+2.60481+2.60773+2.60494+2.64235)/5</f>
         <v>2.616466</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="n">
+        <f aca="false">(204.034+203.875+203.612+203.899+204.185)/5</f>
+        <v>203.921</v>
+      </c>
       <c r="E4" s="4" t="n">
         <f aca="false">(16.0087+15.9012+15.939+15.9002+15.8931)/5</f>
         <v>15.92844</v>
@@ -405,7 +415,10 @@
         <f aca="false">(2.29967+2.26363+2.26562+2.26316+2.35944)/5</f>
         <v>2.290304</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="n">
+        <f aca="false">(6.11952+6.43782+6.24015+6.20927+6.11564)/5</f>
+        <v>6.22448</v>
+      </c>
       <c r="E5" s="4" t="n">
         <f aca="false">(2.26903+2.21425+2.21908+2.21584+2.22027)/5</f>
         <v>2.227694</v>
@@ -423,7 +436,10 @@
         <f aca="false">(8.47281+8.42527+8.37783+8.39164+8.82013)/5</f>
         <v>8.497536</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="n">
+        <f aca="false">(108.435+108.966+108.928+109.511+108.6)/5</f>
+        <v>108.888</v>
+      </c>
       <c r="E6" s="4" t="n">
         <f aca="false">(74.1614+73.7355+73.8806+74.2182+73.9016)/5</f>
         <v>73.97946</v>
@@ -441,7 +457,10 @@
         <f aca="false">(6.49826+6.44198+6.46082+6.76927+6.5892)/5</f>
         <v>6.551906</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="n">
+        <f aca="false">(329.349+330.128+329.541+329.856+330.074)/5</f>
+        <v>329.7896</v>
+      </c>
       <c r="E7" s="4" t="n">
         <f aca="false">(57.5752+57.2963+57.3337+57.4443+57.337)/5</f>
         <v>57.3973</v>
@@ -459,7 +478,10 @@
         <f aca="false">(3.31655+3.30565+3.29959+3.30589+3.30794)/5</f>
         <v>3.307124</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="6" t="n">
+        <f aca="false">(158.899+158.888+158.526+157.991+158.903)/5</f>
+        <v>158.6414</v>
+      </c>
       <c r="E8" s="4" t="n">
         <f aca="false">(3.25144+3.25087+3.24858+3.24836+3.25558)/5</f>
         <v>3.250966</v>
@@ -479,7 +501,7 @@
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">SUM(D4:D8)</f>
-        <v>0</v>
+        <v>807.46448</v>
       </c>
       <c r="E9" s="4" t="n">
         <f aca="false">SUM(E4:E8)</f>
@@ -487,259 +509,271 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="10" t="n">
         <f aca="false">(2.11758+2.11701+2.13248+2.11861+2.1171)/5</f>
         <v>2.120556</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="10" t="n">
         <f aca="false">(2.61356+2.62787+2.60664+2.66948+2.60817)/5</f>
         <v>2.625144</v>
       </c>
-      <c r="D14" s="9" t="n">
+      <c r="D14" s="10" t="n">
         <f aca="false">(203.385+203.583+204.463+204.39+203.633)/5</f>
         <v>203.8908</v>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="10" t="n">
         <f aca="false">(15.8809+15.8799+15.9602+16.2733+15.8961)/5</f>
         <v>15.97808</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="9" t="n">
+      <c r="B15" s="10" t="n">
         <f aca="false">(1.78935+1.78902+1.78846+1.78872+1.79019)/5</f>
         <v>1.789148</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <f aca="false">(2.48563+2.26274+2.26329+2.28168+2.26243)/5</f>
         <v>2.311154</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="10" t="n">
         <f aca="false">(6.11628+6.10135+6.11597+6.1265+6.14355)/5</f>
         <v>6.12073</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="10" t="n">
         <f aca="false">(2.2143+2.28192+2.21146+2.21143+2.2129)/5</f>
         <v>2.226402</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="10" t="n">
         <f aca="false">(49.5763+52.7608+48.0374+47.3509+48.4641)/5</f>
         <v>49.2379</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="10" t="n">
         <f aca="false">(43.0941+39.6687+37.8384+38.0169+38.5331)/5</f>
         <v>39.43024</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="10" t="n">
         <f aca="false">(488.498+482.918+485.014+484.759+481.954)/5</f>
         <v>484.6286</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="10" t="n">
         <f aca="false">(304.153+306.382+299.326+299.917+302.547)/5</f>
         <v>302.465</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="n">
+      <c r="B17" s="10" t="n">
         <f aca="false">(70.0598+71.035+71.5014+72.8601+70.6708)/5</f>
         <v>71.22542</v>
       </c>
-      <c r="C17" s="9" t="n">
+      <c r="C17" s="10" t="n">
         <f aca="false">(50.4878+50.0191+50.2795+50.4124+51.2379)/5</f>
         <v>50.48734</v>
       </c>
-      <c r="D17" s="9" t="n">
+      <c r="D17" s="10" t="n">
         <f aca="false">(2070.61+2136.17+2025.84+1536.91+1697.72)/5</f>
         <v>1893.45</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="10" t="n">
         <f aca="false">(260.704+258.935+260.797+259.026+258.224)/5</f>
         <v>259.5372</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="10" t="n">
         <f aca="false">(2.87018+2.7567+2.76631+2.75196+2.77727)/5</f>
         <v>2.784484</v>
       </c>
-      <c r="C18" s="9" t="n">
+      <c r="C18" s="10" t="n">
         <f aca="false">(3.3197+3.62666+3.32007+3.31533+3.31798)/5</f>
         <v>3.379948</v>
       </c>
-      <c r="D18" s="9" t="n">
+      <c r="D18" s="10" t="n">
         <f aca="false">(159.598+162.842+160.258+163.46+164.336)/5</f>
         <v>162.0988</v>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="10" t="n">
         <f aca="false">(3.2725+3.21404+3.5232+3.29191+3.39547)/5</f>
         <v>3.339424</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="9" t="n">
+      <c r="B19" s="10" t="n">
         <f aca="false">SUM(B14:B18)</f>
         <v>127.157508</v>
       </c>
-      <c r="C19" s="9" t="n">
+      <c r="C19" s="10" t="n">
         <f aca="false">SUM(C14:C18)</f>
         <v>98.233826</v>
       </c>
-      <c r="D19" s="9" t="n">
+      <c r="D19" s="10" t="n">
         <f aca="false">SUM(D14:D18)</f>
         <v>2750.18893</v>
       </c>
-      <c r="E19" s="9" t="n">
+      <c r="E19" s="10" t="n">
         <f aca="false">SUM(E14:E18)</f>
         <v>583.546106</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
+      <c r="A24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="A25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="A26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
+      <c r="A27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="A28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -747,8 +781,8 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/index_build_times.xlsx
+++ b/index_build_times.xlsx
@@ -200,7 +200,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -258,6 +258,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -341,7 +345,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -709,71 +713,176 @@
       <c r="A24" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="12"/>
+      <c r="B24" s="15" t="n">
+        <f aca="false">(0.148542+0.148461+0.147445+0.148781+0.148514)/5</f>
+        <v>0.1483486</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <f aca="false">(0.22119+0.195683+0.196896+0.195851+0.200137)/5</f>
+        <v>0.2019514</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <f aca="false">(1.02987+1.04242+1.02666+1.0302+1.03145)/5</f>
+        <v>1.03212</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <f aca="false">(15.0838+15.8622+15.2584+15.4685+15.2169)/5</f>
+        <v>15.37796</v>
+      </c>
+      <c r="F24" s="15" t="n">
+        <f aca="false">(1.07828+1.05154+1.03035+1.03241+1.02617)/5</f>
+        <v>1.04375</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="12"/>
+      <c r="B25" s="15" t="n">
+        <f aca="false">(0.656544+0.656577+0.656983+0.657071+0.657465)/5</f>
+        <v>0.656928</v>
+      </c>
+      <c r="C25" s="15" t="n">
+        <f aca="false">(0.762904+0.762778+0.763616+0.763524+0.764375)/5</f>
+        <v>0.7634394</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <f aca="false">(3.61774+3.61151+3.61306+3.65721+3.64153)/5</f>
+        <v>3.62821</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <f aca="false">(218.66+218.778+221.719+221.025+218.572)/5</f>
+        <v>219.7508</v>
+      </c>
+      <c r="F25" s="15" t="n">
+        <f aca="false">(3.62415+3.61532+3.61154+3.6341+3.61377)/5</f>
+        <v>3.619776</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="15" t="n">
+        <f aca="false">(3.07683+3.06376+3.13867+3.07326+3.06826)/5</f>
+        <v>3.084156</v>
+      </c>
+      <c r="C26" s="15" t="n">
+        <f aca="false">(3.84828+3.85047+3.85387+3.85881+3.85288)/5</f>
+        <v>3.852862</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <f aca="false">(22.8852+22.8723+23.049+24.2356+22.8745)/5</f>
+        <v>23.18332</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <f aca="false">(700.848+694.558+690.941+714.705+693.824)/5</f>
+        <v>698.9752</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <f aca="false">(23.0711+22.9609+22.9109+24.6303+22.8736)/5</f>
+        <v>23.28936</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="12"/>
+      <c r="B27" s="15" t="n">
+        <f aca="false">(11.3389+11.4321+11.58+11.3597+11.3709)/5</f>
+        <v>11.41632</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <f aca="false">(13.3618+13.2946+13.3055+13.3022+13.301)/5</f>
+        <v>13.31302</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <f aca="false">(53.0528+53.2677+53.8663+53.3803+53.6128)/5</f>
+        <v>53.43598</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <f aca="false">(3231.63+3276.54+3198.06+3075.7+2998.18)/5</f>
+        <v>3156.022</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <f aca="false">(662.312+397.023+349.231+398.163+349.231+371.301)/5</f>
+        <v>505.4522</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12"/>
+      <c r="B28" s="15" t="n">
+        <f aca="false">(2.25127+2.25606+2.4884+2.25569+2.25729)/5</f>
+        <v>2.301742</v>
+      </c>
+      <c r="C28" s="15" t="n">
+        <f aca="false">(2.90764+2.90838+2.90881+2.90827+2.91081)/5</f>
+        <v>2.908782</v>
+      </c>
+      <c r="D28" s="15" t="n">
+        <f aca="false">(18.2144+18.2161+18.7175+18.3709+18.2204)/5</f>
+        <v>18.34786</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <f aca="false">(36.996+39.076+36.1302+34.3196+37.0837)/5</f>
+        <v>36.7211</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <f aca="false">(20.5763+20.6189+20.6514+20.8378+20.6164)/5</f>
+        <v>20.66016</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="12"/>
+      <c r="B29" s="15" t="n">
+        <f aca="false">(0.16176+0.161215+0.162113+0.16176+0.16247)/5</f>
+        <v>0.1618636</v>
+      </c>
+      <c r="C29" s="15" t="n">
+        <f aca="false">(0.214602+0.214146+0.214403+0.214654+0.214532)/5</f>
+        <v>0.2144674</v>
+      </c>
+      <c r="D29" s="15" t="n">
+        <f aca="false">(1.145+1.15569+1.14106+1.14331+1.14345)/5</f>
+        <v>1.145702</v>
+      </c>
+      <c r="E29" s="15" t="n">
+        <f aca="false">(13.1867+13.345+13.3665+13.1004+13.1382)/5</f>
+        <v>13.22736</v>
+      </c>
+      <c r="F29" s="15" t="n">
+        <f aca="false">(1.14281+1.14335+1.14226+1.14081+1.14028)/5</f>
+        <v>1.141902</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="12"/>
+      <c r="B30" s="15" t="n">
+        <f aca="false">SUM(B24:B29)</f>
+        <v>17.7693582</v>
+      </c>
+      <c r="C30" s="15" t="n">
+        <f aca="false">SUM(C24:C29)</f>
+        <v>21.2545222</v>
+      </c>
+      <c r="D30" s="15" t="n">
+        <f aca="false">SUM(D24:D29)</f>
+        <v>100.773192</v>
+      </c>
+      <c r="E30" s="15" t="n">
+        <f aca="false">SUM(E24:E29)</f>
+        <v>4140.07442</v>
+      </c>
+      <c r="F30" s="15" t="n">
+        <f aca="false">SUM(F24:F29)</f>
+        <v>555.207148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/index_build_times.xlsx
+++ b/index_build_times.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">Load Time - Average of 5 runs (secs)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Build Time (secs)</t>
   </si>
   <si>
     <t xml:space="preserve">Pubmed – Mesh only</t>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Huffman</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimal</t>
+    <t xml:space="preserve">BB</t>
   </si>
   <si>
     <t xml:space="preserve">DA1</t>
@@ -58,16 +58,10 @@
     <t xml:space="preserve">Total:</t>
   </si>
   <si>
-    <t xml:space="preserve">Load Time  - Average of 5 runs (secs)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pubmed – Mesh + Supp.</t>
   </si>
   <si>
     <t xml:space="preserve">SemmedDB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB</t>
   </si>
   <si>
     <t xml:space="preserve">CS1</t>
@@ -127,7 +121,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF800000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -345,12 +339,12 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,20 +385,20 @@
         <v>6</v>
       </c>
       <c r="B4" s="4" t="n">
-        <f aca="false">(2.12212+2.11248+2.11414+2.15674+2.12019)/5</f>
-        <v>2.125134</v>
+        <f aca="false">2.12862</f>
+        <v>2.12862</v>
       </c>
       <c r="C4" s="5" t="n">
-        <f aca="false">(2.6225+2.60481+2.60773+2.60494+2.64235)/5</f>
-        <v>2.616466</v>
+        <f aca="false">2.59652</f>
+        <v>2.59652</v>
       </c>
       <c r="D4" s="4" t="n">
-        <f aca="false">(204.034+203.875+203.612+203.899+204.185)/5</f>
-        <v>203.921</v>
+        <f aca="false">212.024</f>
+        <v>212.024</v>
       </c>
       <c r="E4" s="4" t="n">
-        <f aca="false">(16.0087+15.9012+15.939+15.9002+15.8931)/5</f>
-        <v>15.92844</v>
+        <f aca="false">15.8504</f>
+        <v>15.8504</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,20 +406,20 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="n">
-        <f aca="false">(1.84725+1.78695+1.78827+1.78831+1.79258)/5</f>
-        <v>1.800672</v>
+        <f aca="false">1.78368</f>
+        <v>1.78368</v>
       </c>
       <c r="C5" s="4" t="n">
-        <f aca="false">(2.29967+2.26363+2.26562+2.26316+2.35944)/5</f>
-        <v>2.290304</v>
+        <f aca="false">2.24727</f>
+        <v>2.24727</v>
       </c>
       <c r="D5" s="4" t="n">
-        <f aca="false">(6.11952+6.43782+6.24015+6.20927+6.11564)/5</f>
-        <v>6.22448</v>
+        <f aca="false">6.34115</f>
+        <v>6.34115</v>
       </c>
       <c r="E5" s="4" t="n">
-        <f aca="false">(2.26903+2.21425+2.21908+2.21584+2.22027)/5</f>
-        <v>2.227694</v>
+        <f aca="false">8.65218</f>
+        <v>8.65218</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,62 +427,56 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="n">
-        <f aca="false">(6.6981+7.29344+7.12232+7.09908+8.10597)/5</f>
-        <v>7.263782</v>
+        <f aca="false">7.03131</f>
+        <v>7.03131</v>
       </c>
       <c r="C6" s="4" t="n">
-        <f aca="false">(8.47281+8.42527+8.37783+8.39164+8.82013)/5</f>
-        <v>8.497536</v>
+        <f aca="false">8.54817</f>
+        <v>8.54817</v>
       </c>
       <c r="D6" s="4" t="n">
-        <f aca="false">(108.435+108.966+108.928+109.511+108.6)/5</f>
-        <v>108.888</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">(74.1614+73.7355+73.8806+74.2182+73.9016)/5</f>
-        <v>73.97946</v>
-      </c>
+        <f aca="false">108.943</f>
+        <v>108.943</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="4" t="n">
-        <f aca="false">(4.96439+5.36246+5.41704+5.60441+5.50507)/5</f>
-        <v>5.370674</v>
+        <f aca="false">4.9671</f>
+        <v>4.9671</v>
       </c>
       <c r="C7" s="4" t="n">
-        <f aca="false">(6.49826+6.44198+6.46082+6.76927+6.5892)/5</f>
-        <v>6.551906</v>
+        <f aca="false">6.16536</f>
+        <v>6.16536</v>
       </c>
       <c r="D7" s="4" t="n">
-        <f aca="false">(329.349+330.128+329.541+329.856+330.074)/5</f>
-        <v>329.7896</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">(57.5752+57.2963+57.3337+57.4443+57.337)/5</f>
-        <v>57.3973</v>
-      </c>
+        <f aca="false">334.249</f>
+        <v>334.249</v>
+      </c>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="4" t="n">
-        <f aca="false">(2.73477+2.82679+2.80586+2.76999+2.73026)/5</f>
-        <v>2.773534</v>
+        <f aca="false">2.7315</f>
+        <v>2.7315</v>
       </c>
       <c r="C8" s="4" t="n">
-        <f aca="false">(3.31655+3.30565+3.29959+3.30589+3.30794)/5</f>
-        <v>3.307124</v>
+        <f aca="false">3.3032</f>
+        <v>3.3032</v>
       </c>
       <c r="D8" s="6" t="n">
-        <f aca="false">(158.899+158.888+158.526+157.991+158.903)/5</f>
-        <v>158.6414</v>
+        <f aca="false">(163.689)</f>
+        <v>163.689</v>
       </c>
       <c r="E8" s="4" t="n">
-        <f aca="false">(3.25144+3.25087+3.24858+3.24836+3.25558)/5</f>
-        <v>3.250966</v>
+        <f aca="false">21.3492</f>
+        <v>21.3492</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,24 +485,21 @@
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">SUM(B4:B8)</f>
-        <v>19.333796</v>
+        <v>18.64221</v>
       </c>
       <c r="C9" s="4" t="n">
         <f aca="false">SUM(C4:C8)</f>
-        <v>23.263336</v>
+        <v>22.86052</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">SUM(D4:D8)</f>
-        <v>807.46448</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">SUM(E4:E8)</f>
-        <v>152.78386</v>
-      </c>
+        <v>825.24615</v>
+      </c>
+      <c r="E9" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -523,7 +508,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -550,20 +535,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="10" t="n">
-        <f aca="false">(2.11758+2.11701+2.13248+2.11861+2.1171)/5</f>
-        <v>2.120556</v>
+        <f aca="false">2.1216</f>
+        <v>2.1216</v>
       </c>
       <c r="C14" s="10" t="n">
-        <f aca="false">(2.61356+2.62787+2.60664+2.66948+2.60817)/5</f>
-        <v>2.625144</v>
+        <f aca="false">2.61609</f>
+        <v>2.61609</v>
       </c>
       <c r="D14" s="10" t="n">
-        <f aca="false">(203.385+203.583+204.463+204.39+203.633)/5</f>
-        <v>203.8908</v>
+        <f aca="false">214.208</f>
+        <v>214.208</v>
       </c>
       <c r="E14" s="10" t="n">
-        <f aca="false">(15.8809+15.8799+15.9602+16.2733+15.8961)/5</f>
-        <v>15.97808</v>
+        <f aca="false">16.1387</f>
+        <v>16.1387</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,20 +556,20 @@
         <v>7</v>
       </c>
       <c r="B15" s="10" t="n">
-        <f aca="false">(1.78935+1.78902+1.78846+1.78872+1.79019)/5</f>
-        <v>1.789148</v>
+        <f aca="false">1.78241</f>
+        <v>1.78241</v>
       </c>
       <c r="C15" s="11" t="n">
-        <f aca="false">(2.48563+2.26274+2.26329+2.28168+2.26243)/5</f>
-        <v>2.311154</v>
+        <f aca="false">2.24836</f>
+        <v>2.24836</v>
       </c>
       <c r="D15" s="10" t="n">
-        <f aca="false">(6.11628+6.10135+6.11597+6.1265+6.14355)/5</f>
-        <v>6.12073</v>
+        <f aca="false">6.34659</f>
+        <v>6.34659</v>
       </c>
       <c r="E15" s="10" t="n">
-        <f aca="false">(2.2143+2.28192+2.21146+2.21143+2.2129)/5</f>
-        <v>2.226402</v>
+        <f aca="false">8.66859</f>
+        <v>8.66859</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -592,62 +577,56 @@
         <v>8</v>
       </c>
       <c r="B16" s="10" t="n">
-        <f aca="false">(49.5763+52.7608+48.0374+47.3509+48.4641)/5</f>
-        <v>49.2379</v>
+        <f aca="false">39.985</f>
+        <v>39.985</v>
       </c>
       <c r="C16" s="10" t="n">
-        <f aca="false">(43.0941+39.6687+37.8384+38.0169+38.5331)/5</f>
-        <v>39.43024</v>
+        <f aca="false">30.4438</f>
+        <v>30.4438</v>
       </c>
       <c r="D16" s="10" t="n">
-        <f aca="false">(488.498+482.918+485.014+484.759+481.954)/5</f>
-        <v>484.6286</v>
-      </c>
-      <c r="E16" s="10" t="n">
-        <f aca="false">(304.153+306.382+299.326+299.917+302.547)/5</f>
-        <v>302.465</v>
-      </c>
+        <f aca="false">459.665</f>
+        <v>459.665</v>
+      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="10" t="n">
-        <f aca="false">(70.0598+71.035+71.5014+72.8601+70.6708)/5</f>
-        <v>71.22542</v>
+        <f aca="false">27.6268</f>
+        <v>27.6268</v>
       </c>
       <c r="C17" s="10" t="n">
-        <f aca="false">(50.4878+50.0191+50.2795+50.4124+51.2379)/5</f>
-        <v>50.48734</v>
+        <f aca="false">27.8309</f>
+        <v>27.8309</v>
       </c>
       <c r="D17" s="10" t="n">
-        <f aca="false">(2070.61+2136.17+2025.84+1536.91+1697.72)/5</f>
-        <v>1893.45</v>
-      </c>
-      <c r="E17" s="10" t="n">
-        <f aca="false">(260.704+258.935+260.797+259.026+258.224)/5</f>
-        <v>259.5372</v>
-      </c>
+        <f aca="false">1152.95</f>
+        <v>1152.95</v>
+      </c>
+      <c r="E17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="10" t="n">
-        <f aca="false">(2.87018+2.7567+2.76631+2.75196+2.77727)/5</f>
-        <v>2.784484</v>
+        <f aca="false">2.99336</f>
+        <v>2.99336</v>
       </c>
       <c r="C18" s="10" t="n">
-        <f aca="false">(3.3197+3.62666+3.32007+3.31533+3.31798)/5</f>
-        <v>3.379948</v>
+        <f aca="false">3.30424</f>
+        <v>3.30424</v>
       </c>
       <c r="D18" s="10" t="n">
-        <f aca="false">(159.598+162.842+160.258+163.46+164.336)/5</f>
-        <v>162.0988</v>
+        <f aca="false">166.442</f>
+        <v>166.442</v>
       </c>
       <c r="E18" s="10" t="n">
-        <f aca="false">(3.2725+3.21404+3.5232+3.29191+3.39547)/5</f>
-        <v>3.339424</v>
+        <f aca="false">21.3304</f>
+        <v>21.3304</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,24 +635,21 @@
       </c>
       <c r="B19" s="10" t="n">
         <f aca="false">SUM(B14:B18)</f>
-        <v>127.157508</v>
+        <v>74.50917</v>
       </c>
       <c r="C19" s="10" t="n">
         <f aca="false">SUM(C14:C18)</f>
-        <v>98.233826</v>
+        <v>66.44339</v>
       </c>
       <c r="D19" s="10" t="n">
         <f aca="false">SUM(D14:D18)</f>
-        <v>2750.18893</v>
-      </c>
-      <c r="E19" s="10" t="n">
-        <f aca="false">SUM(E14:E18)</f>
-        <v>583.546106</v>
-      </c>
+        <v>1999.61159</v>
+      </c>
+      <c r="E19" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -683,7 +659,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -700,164 +676,144 @@
         <v>3</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>5</v>
-      </c>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24" s="15" t="n">
-        <f aca="false">(0.148542+0.148461+0.147445+0.148781+0.148514)/5</f>
-        <v>0.1483486</v>
+        <f aca="false">0.147853</f>
+        <v>0.147853</v>
       </c>
       <c r="C24" s="15" t="n">
-        <f aca="false">(0.22119+0.195683+0.196896+0.195851+0.200137)/5</f>
-        <v>0.2019514</v>
+        <f aca="false">0.222369</f>
+        <v>0.222369</v>
       </c>
       <c r="D24" s="15" t="n">
-        <f aca="false">(1.02987+1.04242+1.02666+1.0302+1.03145)/5</f>
-        <v>1.03212</v>
+        <f aca="false">1.03084</f>
+        <v>1.03084</v>
       </c>
       <c r="E24" s="15" t="n">
-        <f aca="false">(15.0838+15.8622+15.2584+15.4685+15.2169)/5</f>
-        <v>15.37796</v>
-      </c>
-      <c r="F24" s="15" t="n">
-        <f aca="false">(1.07828+1.05154+1.03035+1.03241+1.02617)/5</f>
-        <v>1.04375</v>
-      </c>
+        <f aca="false">15.8893</f>
+        <v>15.8893</v>
+      </c>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="15" t="n">
-        <f aca="false">(0.656544+0.656577+0.656983+0.657071+0.657465)/5</f>
-        <v>0.656928</v>
+        <f aca="false">0.663488</f>
+        <v>0.663488</v>
       </c>
       <c r="C25" s="15" t="n">
-        <f aca="false">(0.762904+0.762778+0.763616+0.763524+0.764375)/5</f>
-        <v>0.7634394</v>
+        <f aca="false">0.77159</f>
+        <v>0.77159</v>
       </c>
       <c r="D25" s="15" t="n">
-        <f aca="false">(3.61774+3.61151+3.61306+3.65721+3.64153)/5</f>
-        <v>3.62821</v>
+        <f aca="false">3.64441</f>
+        <v>3.64441</v>
       </c>
       <c r="E25" s="15" t="n">
-        <f aca="false">(218.66+218.778+221.719+221.025+218.572)/5</f>
-        <v>219.7508</v>
-      </c>
-      <c r="F25" s="15" t="n">
-        <f aca="false">(3.62415+3.61532+3.61154+3.6341+3.61377)/5</f>
-        <v>3.619776</v>
-      </c>
+        <f aca="false">230.083</f>
+        <v>230.083</v>
+      </c>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26" s="15" t="n">
-        <f aca="false">(3.07683+3.06376+3.13867+3.07326+3.06826)/5</f>
-        <v>3.084156</v>
+        <f aca="false">3.07812</f>
+        <v>3.07812</v>
       </c>
       <c r="C26" s="15" t="n">
-        <f aca="false">(3.84828+3.85047+3.85387+3.85881+3.85288)/5</f>
-        <v>3.852862</v>
+        <f aca="false">3.85295</f>
+        <v>3.85295</v>
       </c>
       <c r="D26" s="15" t="n">
-        <f aca="false">(22.8852+22.8723+23.049+24.2356+22.8745)/5</f>
-        <v>23.18332</v>
+        <f aca="false">22.8923</f>
+        <v>22.8923</v>
       </c>
       <c r="E26" s="15" t="n">
-        <f aca="false">(700.848+694.558+690.941+714.705+693.824)/5</f>
-        <v>698.9752</v>
-      </c>
-      <c r="F26" s="15" t="n">
-        <f aca="false">(23.0711+22.9609+22.9109+24.6303+22.8736)/5</f>
-        <v>23.28936</v>
-      </c>
+        <f aca="false">727.164</f>
+        <v>727.164</v>
+      </c>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B27" s="15" t="n">
-        <f aca="false">(11.3389+11.4321+11.58+11.3597+11.3709)/5</f>
-        <v>11.41632</v>
+        <f aca="false">11.3287</f>
+        <v>11.3287</v>
       </c>
       <c r="C27" s="15" t="n">
-        <f aca="false">(13.3618+13.2946+13.3055+13.3022+13.301)/5</f>
-        <v>13.31302</v>
+        <f aca="false">13.1777</f>
+        <v>13.1777</v>
       </c>
       <c r="D27" s="15" t="n">
-        <f aca="false">(53.0528+53.2677+53.8663+53.3803+53.6128)/5</f>
-        <v>53.43598</v>
+        <f aca="false">53.3426</f>
+        <v>53.3426</v>
       </c>
       <c r="E27" s="15" t="n">
-        <f aca="false">(3231.63+3276.54+3198.06+3075.7+2998.18)/5</f>
-        <v>3156.022</v>
-      </c>
-      <c r="F27" s="15" t="n">
-        <f aca="false">(662.312+397.023+349.231+398.163+349.231+371.301)/5</f>
-        <v>505.4522</v>
-      </c>
+        <f aca="false">264.656</f>
+        <v>264.656</v>
+      </c>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="15" t="n">
-        <f aca="false">(2.25127+2.25606+2.4884+2.25569+2.25729)/5</f>
-        <v>2.301742</v>
+        <f aca="false">2.2516</f>
+        <v>2.2516</v>
       </c>
       <c r="C28" s="15" t="n">
-        <f aca="false">(2.90764+2.90838+2.90881+2.90827+2.91081)/5</f>
-        <v>2.908782</v>
+        <f aca="false">2.90198</f>
+        <v>2.90198</v>
       </c>
       <c r="D28" s="15" t="n">
-        <f aca="false">(18.2144+18.2161+18.7175+18.3709+18.2204)/5</f>
-        <v>18.34786</v>
+        <f aca="false">18.5201</f>
+        <v>18.5201</v>
       </c>
       <c r="E28" s="15" t="n">
-        <f aca="false">(36.996+39.076+36.1302+34.3196+37.0837)/5</f>
-        <v>36.7211</v>
-      </c>
-      <c r="F28" s="15" t="n">
-        <f aca="false">(20.5763+20.6189+20.6514+20.8378+20.6164)/5</f>
-        <v>20.66016</v>
-      </c>
+        <f aca="false">21.2266</f>
+        <v>21.2266</v>
+      </c>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="15" t="n">
-        <f aca="false">(0.16176+0.161215+0.162113+0.16176+0.16247)/5</f>
-        <v>0.1618636</v>
+        <f aca="false">0.164851</f>
+        <v>0.164851</v>
       </c>
       <c r="C29" s="15" t="n">
-        <f aca="false">(0.214602+0.214146+0.214403+0.214654+0.214532)/5</f>
-        <v>0.2144674</v>
+        <f aca="false">0.217844</f>
+        <v>0.217844</v>
       </c>
       <c r="D29" s="15" t="n">
-        <f aca="false">(1.145+1.15569+1.14106+1.14331+1.14345)/5</f>
-        <v>1.145702</v>
+        <f aca="false">1.17173</f>
+        <v>1.17173</v>
       </c>
       <c r="E29" s="15" t="n">
-        <f aca="false">(13.1867+13.345+13.3665+13.1004+13.1382)/5</f>
-        <v>13.22736</v>
-      </c>
-      <c r="F29" s="15" t="n">
-        <f aca="false">(1.14281+1.14335+1.14226+1.14081+1.14028)/5</f>
-        <v>1.141902</v>
-      </c>
+        <f aca="false">13.8824</f>
+        <v>13.8824</v>
+      </c>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="13" t="s">
@@ -865,24 +821,21 @@
       </c>
       <c r="B30" s="15" t="n">
         <f aca="false">SUM(B24:B29)</f>
-        <v>17.7693582</v>
+        <v>17.634612</v>
       </c>
       <c r="C30" s="15" t="n">
         <f aca="false">SUM(C24:C29)</f>
-        <v>21.2545222</v>
+        <v>21.144433</v>
       </c>
       <c r="D30" s="15" t="n">
         <f aca="false">SUM(D24:D29)</f>
-        <v>100.773192</v>
+        <v>100.60198</v>
       </c>
       <c r="E30" s="15" t="n">
         <f aca="false">SUM(E24:E29)</f>
-        <v>4140.07442</v>
-      </c>
-      <c r="F30" s="15" t="n">
-        <f aca="false">SUM(F24:F29)</f>
-        <v>555.207148</v>
-      </c>
+        <v>1272.9013</v>
+      </c>
+      <c r="F30" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/index_build_times.xlsx
+++ b/index_build_times.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/index_build_times.xlsx
+++ b/index_build_times.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t xml:space="preserve">Build Time (secs)</t>
   </si>
@@ -40,18 +40,30 @@
     <t xml:space="preserve">BB</t>
   </si>
   <si>
+    <t xml:space="preserve">Optimal</t>
+  </si>
+  <si>
     <t xml:space="preserve">DA1</t>
   </si>
   <si>
     <t xml:space="preserve">DY</t>
   </si>
   <si>
+    <t xml:space="preserve">On Optimal</t>
+  </si>
+  <si>
     <t xml:space="preserve">DT1</t>
   </si>
   <si>
+    <t xml:space="preserve">Term=BB; Fre=Huffman</t>
+  </si>
+  <si>
     <t xml:space="preserve">DT2</t>
   </si>
   <si>
+    <t xml:space="preserve">Doc=BB; Fre=Huffman</t>
+  </si>
+  <si>
     <t xml:space="preserve">DA2</t>
   </si>
   <si>
@@ -61,7 +73,7 @@
     <t xml:space="preserve">Pubmed – Mesh + Supp.</t>
   </si>
   <si>
-    <t xml:space="preserve">SemmedDB</t>
+    <t xml:space="preserve">Term=BB;Fre=Huffman</t>
   </si>
   <si>
     <t xml:space="preserve">CS1</t>
@@ -194,7 +206,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +220,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -256,6 +272,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -336,15 +356,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="13.3214285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="13.3214285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -379,463 +401,540 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <f aca="false">2.12862</f>
         <v>2.12862</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <f aca="false">2.59652</f>
         <v>2.59652</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <f aca="false">212.024</f>
         <v>212.024</v>
       </c>
-      <c r="E4" s="4" t="n">
+      <c r="E4" s="5" t="n">
         <f aca="false">15.8504</f>
         <v>15.8504</v>
       </c>
+      <c r="F4" s="0" t="n">
+        <v>15.8504</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <f aca="false">1.78368</f>
         <v>1.78368</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <f aca="false">2.24727</f>
         <v>2.24727</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <f aca="false">6.34115</f>
         <v>6.34115</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="5" t="n">
         <f aca="false">8.65218</f>
         <v>8.65218</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>2.2473</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <f aca="false">7.03131</f>
         <v>7.03131</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <f aca="false">8.54817</f>
         <v>8.54817</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <f aca="false">108.943</f>
         <v>108.943</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="0" t="n">
+        <v>74.7425</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <f aca="false">4.9671</f>
         <v>4.9671</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="5" t="n">
         <f aca="false">6.16536</f>
         <v>6.16536</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <f aca="false">334.249</f>
         <v>334.249</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="0" t="n">
+        <v>57.7561</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <f aca="false">2.7315</f>
         <v>2.7315</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <f aca="false">3.3032</f>
         <v>3.3032</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <f aca="false">(163.689)</f>
         <v>163.689</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <f aca="false">21.3492</f>
         <v>21.3492</v>
       </c>
+      <c r="F8" s="0" t="n">
+        <v>3.3032</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <f aca="false">SUM(B4:B8)</f>
         <v>18.64221</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <f aca="false">SUM(C4:C8)</f>
         <v>22.86052</v>
       </c>
-      <c r="D9" s="4" t="n">
+      <c r="D9" s="5" t="n">
         <f aca="false">SUM(D4:D8)</f>
         <v>825.24615</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="0" t="n">
+        <f aca="false">SUM(F4:F8)</f>
+        <v>153.8995</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="10" t="s">
         <v>5</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="10" t="n">
+      <c r="A14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="11" t="n">
         <f aca="false">2.1216</f>
         <v>2.1216</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="11" t="n">
         <f aca="false">2.61609</f>
         <v>2.61609</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="11" t="n">
         <f aca="false">214.208</f>
         <v>214.208</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="11" t="n">
         <f aca="false">16.1387</f>
         <v>16.1387</v>
       </c>
+      <c r="F14" s="0" t="n">
+        <v>16.1387</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="10" t="n">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="11" t="n">
         <f aca="false">1.78241</f>
         <v>1.78241</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="12" t="n">
         <f aca="false">2.24836</f>
         <v>2.24836</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="11" t="n">
         <f aca="false">6.34659</f>
         <v>6.34659</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="11" t="n">
         <f aca="false">8.66859</f>
         <v>8.66859</v>
       </c>
+      <c r="F15" s="0" t="n">
+        <v>2.2484</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10" t="n">
+      <c r="A16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11" t="n">
         <f aca="false">39.985</f>
         <v>39.985</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="11" t="n">
         <f aca="false">30.4438</f>
         <v>30.4438</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="11" t="n">
         <f aca="false">459.665</f>
         <v>459.665</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="0" t="n">
+        <v>291.337</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10" t="n">
+      <c r="A17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="11" t="n">
         <f aca="false">27.6268</f>
         <v>27.6268</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="11" t="n">
         <f aca="false">27.8309</f>
         <v>27.8309</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="11" t="n">
         <f aca="false">1152.95</f>
         <v>1152.95</v>
       </c>
-      <c r="E17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="0" t="n">
+        <v>248.263</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="10" t="n">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="11" t="n">
         <f aca="false">2.99336</f>
         <v>2.99336</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="11" t="n">
         <f aca="false">3.30424</f>
         <v>3.30424</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="11" t="n">
         <f aca="false">166.442</f>
         <v>166.442</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="11" t="n">
         <f aca="false">21.3304</f>
         <v>21.3304</v>
       </c>
+      <c r="F18" s="0" t="n">
+        <v>3.042</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="10" t="n">
+      <c r="A19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="11" t="n">
         <f aca="false">SUM(B14:B18)</f>
         <v>74.50917</v>
       </c>
-      <c r="C19" s="10" t="n">
+      <c r="C19" s="11" t="n">
         <f aca="false">SUM(C14:C18)</f>
         <v>66.44339</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="11" t="n">
         <f aca="false">SUM(D14:D18)</f>
         <v>1999.61159</v>
       </c>
-      <c r="E19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="0" t="n">
+        <f aca="false">SUM(F14:F18)</f>
+        <v>561.0291</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="14" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="15" t="n">
+      <c r="A24" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="16" t="n">
         <f aca="false">0.147853</f>
         <v>0.147853</v>
       </c>
-      <c r="C24" s="15" t="n">
+      <c r="C24" s="16" t="n">
         <f aca="false">0.222369</f>
         <v>0.222369</v>
       </c>
-      <c r="D24" s="15" t="n">
+      <c r="D24" s="17" t="n">
         <f aca="false">1.03084</f>
         <v>1.03084</v>
       </c>
-      <c r="E24" s="15" t="n">
+      <c r="E24" s="16" t="n">
         <f aca="false">15.8893</f>
         <v>15.8893</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="16" t="n">
+        <v>1.0308</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="15" t="n">
+      <c r="A25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="16" t="n">
         <f aca="false">0.663488</f>
         <v>0.663488</v>
       </c>
-      <c r="C25" s="15" t="n">
+      <c r="C25" s="16" t="n">
         <f aca="false">0.77159</f>
         <v>0.77159</v>
       </c>
-      <c r="D25" s="15" t="n">
+      <c r="D25" s="17" t="n">
         <f aca="false">3.64441</f>
         <v>3.64441</v>
       </c>
-      <c r="E25" s="15" t="n">
+      <c r="E25" s="16" t="n">
         <f aca="false">230.083</f>
         <v>230.083</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="16" t="n">
+        <v>3.6444</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" s="15" t="n">
+      <c r="A26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="16" t="n">
         <f aca="false">3.07812</f>
         <v>3.07812</v>
       </c>
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="16" t="n">
         <f aca="false">3.85295</f>
         <v>3.85295</v>
       </c>
-      <c r="D26" s="15" t="n">
+      <c r="D26" s="17" t="n">
         <f aca="false">22.8923</f>
         <v>22.8923</v>
       </c>
-      <c r="E26" s="15" t="n">
+      <c r="E26" s="16" t="n">
         <f aca="false">727.164</f>
         <v>727.164</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="16" t="n">
+        <v>22.8923</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="15" t="n">
+      <c r="A27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="16" t="n">
         <f aca="false">11.3287</f>
         <v>11.3287</v>
       </c>
-      <c r="C27" s="15" t="n">
+      <c r="C27" s="16" t="n">
         <f aca="false">13.1777</f>
         <v>13.1777</v>
       </c>
-      <c r="D27" s="15" t="n">
+      <c r="D27" s="17" t="n">
         <f aca="false">53.3426</f>
         <v>53.3426</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="16" t="n">
         <f aca="false">264.656</f>
         <v>264.656</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="16" t="n">
+        <v>53.3426</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="15" t="n">
+      <c r="A28" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="16" t="n">
         <f aca="false">2.2516</f>
         <v>2.2516</v>
       </c>
-      <c r="C28" s="15" t="n">
+      <c r="C28" s="16" t="n">
         <f aca="false">2.90198</f>
         <v>2.90198</v>
       </c>
-      <c r="D28" s="15" t="n">
+      <c r="D28" s="16" t="n">
         <f aca="false">18.5201</f>
         <v>18.5201</v>
       </c>
-      <c r="E28" s="15" t="n">
+      <c r="E28" s="17" t="n">
         <f aca="false">21.2266</f>
         <v>21.2266</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="16" t="n">
+        <v>21.2266</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="15" t="n">
+      <c r="A29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="16" t="n">
         <f aca="false">0.164851</f>
         <v>0.164851</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C29" s="16" t="n">
         <f aca="false">0.217844</f>
         <v>0.217844</v>
       </c>
-      <c r="D29" s="15" t="n">
+      <c r="D29" s="17" t="n">
         <f aca="false">1.17173</f>
         <v>1.17173</v>
       </c>
-      <c r="E29" s="15" t="n">
+      <c r="E29" s="16" t="n">
         <f aca="false">13.8824</f>
         <v>13.8824</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="16" t="n">
+        <v>1.1717</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="15" t="n">
+      <c r="A30" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="16" t="n">
         <f aca="false">SUM(B24:B29)</f>
         <v>17.634612</v>
       </c>
-      <c r="C30" s="15" t="n">
+      <c r="C30" s="16" t="n">
         <f aca="false">SUM(C24:C29)</f>
         <v>21.144433</v>
       </c>
-      <c r="D30" s="15" t="n">
+      <c r="D30" s="16" t="n">
         <f aca="false">SUM(D24:D29)</f>
         <v>100.60198</v>
       </c>
-      <c r="E30" s="15" t="n">
+      <c r="E30" s="16" t="n">
         <f aca="false">SUM(E24:E29)</f>
         <v>1272.9013</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="16" t="n">
+        <f aca="false">SUM(F24:F29)</f>
+        <v>103.3084</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
